--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H2">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I2">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J2">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.277057</v>
+        <v>2.931802</v>
       </c>
       <c r="N2">
-        <v>3.831171</v>
+        <v>8.795406</v>
       </c>
       <c r="O2">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="P2">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="Q2">
-        <v>3.019738772970333</v>
+        <v>12.055132985502</v>
       </c>
       <c r="R2">
-        <v>27.177648956733</v>
+        <v>108.496196869518</v>
       </c>
       <c r="S2">
-        <v>0.07019970455241618</v>
+        <v>0.1548769973661387</v>
       </c>
       <c r="T2">
-        <v>0.0701997045524162</v>
+        <v>0.1548769973661387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H3">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I3">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J3">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.523874</v>
       </c>
       <c r="O3">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="P3">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="Q3">
-        <v>3.565729047811334</v>
+        <v>6.200498610258</v>
       </c>
       <c r="R3">
-        <v>32.091561430302</v>
+        <v>55.804487492322</v>
       </c>
       <c r="S3">
-        <v>0.08289231105381548</v>
+        <v>0.0796602250746291</v>
       </c>
       <c r="T3">
-        <v>0.08289231105381549</v>
+        <v>0.0796602250746291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H4">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I4">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J4">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9821499999999999</v>
+        <v>0.3072716666666667</v>
       </c>
       <c r="N4">
-        <v>2.94645</v>
+        <v>0.9218150000000001</v>
       </c>
       <c r="O4">
-        <v>0.09460384813180638</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="P4">
-        <v>0.09460384813180636</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="Q4">
-        <v>2.322399419816666</v>
+        <v>1.263455309855</v>
       </c>
       <c r="R4">
-        <v>20.90159477835</v>
+        <v>11.371097788695</v>
       </c>
       <c r="S4">
-        <v>0.05398869418213562</v>
+        <v>0.01623210336476419</v>
       </c>
       <c r="T4">
-        <v>0.05398869418213562</v>
+        <v>0.01623210336476419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H5">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I5">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J5">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9484723333333335</v>
+        <v>0.7995056666666667</v>
       </c>
       <c r="N5">
-        <v>2.845417</v>
+        <v>2.398517</v>
       </c>
       <c r="O5">
-        <v>0.09135990691837981</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="P5">
-        <v>0.09135990691837979</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="Q5">
-        <v>2.242764951021222</v>
+        <v>3.287448174989</v>
       </c>
       <c r="R5">
-        <v>20.184884559191</v>
+        <v>29.587033574901</v>
       </c>
       <c r="S5">
-        <v>0.05213743597673465</v>
+        <v>0.04223512946322647</v>
       </c>
       <c r="T5">
-        <v>0.05213743597673465</v>
+        <v>0.04223512946322647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H6">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I6">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J6">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.427111</v>
+        <v>8.335887</v>
       </c>
       <c r="N6">
-        <v>13.281333</v>
+        <v>25.007661</v>
       </c>
       <c r="O6">
-        <v>0.4264335760389447</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="P6">
-        <v>0.4264335760389446</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="Q6">
-        <v>10.46838061178433</v>
+        <v>34.27592529683699</v>
       </c>
       <c r="R6">
-        <v>94.21542550605899</v>
+        <v>308.4833276715329</v>
       </c>
       <c r="S6">
-        <v>0.2433578800482295</v>
+        <v>0.4403561867218282</v>
       </c>
       <c r="T6">
-        <v>0.2433578800482295</v>
+        <v>0.4403561867218282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H7">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I7">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J7">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.238964666666667</v>
+        <v>0.547269</v>
       </c>
       <c r="N7">
-        <v>3.716894</v>
+        <v>1.641807</v>
       </c>
       <c r="O7">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="P7">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="Q7">
-        <v>2.929665349529111</v>
+        <v>2.250288584919</v>
       </c>
       <c r="R7">
-        <v>26.366988145762</v>
+        <v>20.252597264271</v>
       </c>
       <c r="S7">
-        <v>0.06810577253081328</v>
+        <v>0.02891033551091422</v>
       </c>
       <c r="T7">
-        <v>0.06810577253081329</v>
+        <v>0.02891033551091422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.323865</v>
       </c>
       <c r="I8">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J8">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.277057</v>
+        <v>2.931802</v>
       </c>
       <c r="N8">
-        <v>3.831171</v>
+        <v>8.795406</v>
       </c>
       <c r="O8">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="P8">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="Q8">
-        <v>0.5635503551016666</v>
+        <v>1.293770018243333</v>
       </c>
       <c r="R8">
-        <v>5.071953195915</v>
+        <v>11.64393016419</v>
       </c>
       <c r="S8">
-        <v>0.01310082474108594</v>
+        <v>0.01662156825219941</v>
       </c>
       <c r="T8">
-        <v>0.01310082474108594</v>
+        <v>0.01662156825219941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.323865</v>
       </c>
       <c r="I9">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J9">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.523874</v>
       </c>
       <c r="O9">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="P9">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="Q9">
         <v>0.6654442725566667</v>
@@ -1013,10 +1013,10 @@
         <v>5.988998453010001</v>
       </c>
       <c r="S9">
-        <v>0.01546954715014167</v>
+        <v>0.008549222225256043</v>
       </c>
       <c r="T9">
-        <v>0.01546954715014168</v>
+        <v>0.008549222225256045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>1.323865</v>
       </c>
       <c r="I10">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J10">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.9821499999999999</v>
+        <v>0.3072716666666667</v>
       </c>
       <c r="N10">
-        <v>2.94645</v>
+        <v>0.9218150000000001</v>
       </c>
       <c r="O10">
-        <v>0.09460384813180638</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="P10">
-        <v>0.09460384813180636</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="Q10">
-        <v>0.4334113365833333</v>
+        <v>0.1355954016638889</v>
       </c>
       <c r="R10">
-        <v>3.90070202925</v>
+        <v>1.220358614975</v>
       </c>
       <c r="S10">
-        <v>0.01007548998945039</v>
+        <v>0.001742047034372398</v>
       </c>
       <c r="T10">
-        <v>0.0100754899894504</v>
+        <v>0.001742047034372399</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.323865</v>
       </c>
       <c r="I11">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J11">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9484723333333335</v>
+        <v>0.7995056666666667</v>
       </c>
       <c r="N11">
-        <v>2.845417</v>
+        <v>2.398517</v>
       </c>
       <c r="O11">
-        <v>0.09135990691837981</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="P11">
-        <v>0.09135990691837979</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="Q11">
-        <v>0.4185497751894445</v>
+        <v>0.3528125231338889</v>
       </c>
       <c r="R11">
-        <v>3.766947976705</v>
+        <v>3.175312708205</v>
       </c>
       <c r="S11">
-        <v>0.009730004072464146</v>
+        <v>0.004532720151811135</v>
       </c>
       <c r="T11">
-        <v>0.009730004072464148</v>
+        <v>0.004532720151811136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.323865</v>
       </c>
       <c r="I12">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J12">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.427111</v>
+        <v>8.335887</v>
       </c>
       <c r="N12">
-        <v>13.281333</v>
+        <v>25.007661</v>
       </c>
       <c r="O12">
-        <v>0.4264335760389447</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="P12">
-        <v>0.4264335760389446</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="Q12">
-        <v>1.953632434671667</v>
+        <v>3.678529681085</v>
       </c>
       <c r="R12">
-        <v>17.582691912045</v>
+        <v>33.106767129765</v>
       </c>
       <c r="S12">
-        <v>0.04541598794754949</v>
+        <v>0.0472595061716725</v>
       </c>
       <c r="T12">
-        <v>0.0454159879475495</v>
+        <v>0.0472595061716725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.323865</v>
       </c>
       <c r="I13">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J13">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.238964666666667</v>
+        <v>0.547269</v>
       </c>
       <c r="N13">
-        <v>3.716894</v>
+        <v>1.641807</v>
       </c>
       <c r="O13">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="P13">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="Q13">
-        <v>0.5467406528122223</v>
+        <v>0.241503424895</v>
       </c>
       <c r="R13">
-        <v>4.92066587531</v>
+        <v>2.173530824055</v>
       </c>
       <c r="S13">
-        <v>0.01271005049766609</v>
+        <v>0.003102688734032147</v>
       </c>
       <c r="T13">
-        <v>0.01271005049766609</v>
+        <v>0.003102688734032148</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H14">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I14">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J14">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.277057</v>
+        <v>2.931802</v>
       </c>
       <c r="N14">
-        <v>3.831171</v>
+        <v>8.795406</v>
       </c>
       <c r="O14">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="P14">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="Q14">
-        <v>0.08448030034966665</v>
+        <v>0.1309557772013333</v>
       </c>
       <c r="R14">
-        <v>0.7603227031469999</v>
+        <v>1.178601994812</v>
       </c>
       <c r="S14">
-        <v>0.0019639089904497</v>
+        <v>0.001682439968524906</v>
       </c>
       <c r="T14">
-        <v>0.0019639089904497</v>
+        <v>0.001682439968524906</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H15">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I15">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J15">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.523874</v>
       </c>
       <c r="O15">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="P15">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="Q15">
-        <v>0.09975494026866667</v>
+        <v>0.06735646263866668</v>
       </c>
       <c r="R15">
-        <v>0.897794462418</v>
+        <v>0.606208163748</v>
       </c>
       <c r="S15">
-        <v>0.002318997721652635</v>
+        <v>0.0008653547579464374</v>
       </c>
       <c r="T15">
-        <v>0.002318997721652635</v>
+        <v>0.0008653547579464374</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04466733333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.134002</v>
+      </c>
+      <c r="I16">
+        <v>0.008280604487464496</v>
+      </c>
+      <c r="J16">
+        <v>0.008280604487464496</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.06615233333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.198457</v>
-      </c>
-      <c r="I16">
-        <v>0.01596541070364794</v>
-      </c>
-      <c r="J16">
-        <v>0.01596541070364794</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.9821499999999999</v>
+        <v>0.3072716666666667</v>
       </c>
       <c r="N16">
-        <v>2.94645</v>
+        <v>0.9218150000000001</v>
       </c>
       <c r="O16">
-        <v>0.09460384813180638</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="P16">
-        <v>0.09460384813180636</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="Q16">
-        <v>0.06497151418333331</v>
+        <v>0.01372500595888889</v>
       </c>
       <c r="R16">
-        <v>0.5847436276499999</v>
+        <v>0.12352505363</v>
       </c>
       <c r="S16">
-        <v>0.001510389289569826</v>
+        <v>0.0001763305070380818</v>
       </c>
       <c r="T16">
-        <v>0.001510389289569826</v>
+        <v>0.0001763305070380818</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H17">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I17">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J17">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9484723333333335</v>
+        <v>0.7995056666666667</v>
       </c>
       <c r="N17">
-        <v>2.845417</v>
+        <v>2.398517</v>
       </c>
       <c r="O17">
-        <v>0.09135990691837981</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="P17">
-        <v>0.09135990691837979</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="Q17">
-        <v>0.06274365795211112</v>
+        <v>0.03571178611488889</v>
       </c>
       <c r="R17">
-        <v>0.5646929215690001</v>
+        <v>0.321406075034</v>
       </c>
       <c r="S17">
-        <v>0.00145859843579898</v>
+        <v>0.0004588032509228628</v>
       </c>
       <c r="T17">
-        <v>0.00145859843579898</v>
+        <v>0.0004588032509228628</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H18">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I18">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J18">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.427111</v>
+        <v>8.335887</v>
       </c>
       <c r="N18">
-        <v>13.281333</v>
+        <v>25.007661</v>
       </c>
       <c r="O18">
-        <v>0.4264335760389447</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="P18">
-        <v>0.4264335760389446</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="Q18">
-        <v>0.2928637225756666</v>
+        <v>0.372341843258</v>
       </c>
       <c r="R18">
-        <v>2.635773503181</v>
+        <v>3.351076589322</v>
       </c>
       <c r="S18">
-        <v>0.006808187179287034</v>
+        <v>0.004783620947767679</v>
       </c>
       <c r="T18">
-        <v>0.006808187179287034</v>
+        <v>0.004783620947767679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H19">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I19">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J19">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.238964666666667</v>
+        <v>0.547269</v>
       </c>
       <c r="N19">
-        <v>3.716894</v>
+        <v>1.641807</v>
       </c>
       <c r="O19">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="P19">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="Q19">
-        <v>0.08196040361755555</v>
+        <v>0.024445046846</v>
       </c>
       <c r="R19">
-        <v>0.7376436325579999</v>
+        <v>0.220005421614</v>
       </c>
       <c r="S19">
-        <v>0.001905329086889765</v>
+        <v>0.0003140550552645291</v>
       </c>
       <c r="T19">
-        <v>0.001905329086889765</v>
+        <v>0.0003140550552645291</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H20">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I20">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J20">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.277057</v>
+        <v>2.931802</v>
       </c>
       <c r="N20">
-        <v>3.831171</v>
+        <v>8.795406</v>
       </c>
       <c r="O20">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="P20">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="Q20">
-        <v>1.193432753526</v>
+        <v>1.092723650628</v>
       </c>
       <c r="R20">
-        <v>10.740894781734</v>
+        <v>9.834512855651999</v>
       </c>
       <c r="S20">
-        <v>0.02774366691933879</v>
+        <v>0.01403864711934431</v>
       </c>
       <c r="T20">
-        <v>0.02774366691933879</v>
+        <v>0.01403864711934431</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H21">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I21">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J21">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.523874</v>
       </c>
       <c r="O21">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="P21">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="Q21">
-        <v>1.409213894244</v>
+        <v>0.562037058012</v>
       </c>
       <c r="R21">
-        <v>12.682925048196</v>
+        <v>5.058333522108</v>
       </c>
       <c r="S21">
-        <v>0.03275991947137229</v>
+        <v>0.00722070939060421</v>
       </c>
       <c r="T21">
-        <v>0.0327599194713723</v>
+        <v>0.00722070939060421</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H22">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I22">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J22">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.9821499999999999</v>
+        <v>0.3072716666666667</v>
       </c>
       <c r="N22">
-        <v>2.94645</v>
+        <v>0.9218150000000001</v>
       </c>
       <c r="O22">
-        <v>0.09460384813180638</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="P22">
-        <v>0.09460384813180636</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="Q22">
-        <v>0.9178368536999999</v>
+        <v>0.11452445197</v>
       </c>
       <c r="R22">
-        <v>8.260531683299998</v>
+        <v>1.03072006773</v>
       </c>
       <c r="S22">
-        <v>0.02133690388512697</v>
+        <v>0.001471340321790532</v>
       </c>
       <c r="T22">
-        <v>0.02133690388512697</v>
+        <v>0.001471340321790532</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H23">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I23">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J23">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9484723333333335</v>
+        <v>0.7995056666666667</v>
       </c>
       <c r="N23">
-        <v>2.845417</v>
+        <v>2.398517</v>
       </c>
       <c r="O23">
-        <v>0.09135990691837981</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="P23">
-        <v>0.09135990691837979</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="Q23">
-        <v>0.8863644680020002</v>
+        <v>0.297986955046</v>
       </c>
       <c r="R23">
-        <v>7.977280212018001</v>
+        <v>2.681882595414</v>
       </c>
       <c r="S23">
-        <v>0.02060526703053042</v>
+        <v>0.003828354685701643</v>
       </c>
       <c r="T23">
-        <v>0.02060526703053042</v>
+        <v>0.003828354685701643</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H24">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I24">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J24">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.427111</v>
+        <v>8.335887</v>
       </c>
       <c r="N24">
-        <v>13.281333</v>
+        <v>25.007661</v>
       </c>
       <c r="O24">
-        <v>0.4264335760389447</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="P24">
-        <v>0.4264335760389446</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="Q24">
-        <v>4.137214917498</v>
+        <v>3.106901787318</v>
       </c>
       <c r="R24">
-        <v>37.234934257482</v>
+        <v>27.962116085862</v>
       </c>
       <c r="S24">
-        <v>0.09617761227489523</v>
+        <v>0.03991557957178884</v>
       </c>
       <c r="T24">
-        <v>0.09617761227489524</v>
+        <v>0.03991557957178884</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H25">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I25">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J25">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.238964666666667</v>
+        <v>0.547269</v>
       </c>
       <c r="N25">
-        <v>3.716894</v>
+        <v>1.641807</v>
       </c>
       <c r="O25">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="P25">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="Q25">
-        <v>1.157834782364</v>
+        <v>0.203974818066</v>
       </c>
       <c r="R25">
-        <v>10.420513041276</v>
+        <v>1.835773362594</v>
       </c>
       <c r="S25">
-        <v>0.02691612280174621</v>
+        <v>0.002620544078473389</v>
       </c>
       <c r="T25">
-        <v>0.02691612280174622</v>
+        <v>0.002620544078473389</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H26">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I26">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J26">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.277057</v>
+        <v>2.931802</v>
       </c>
       <c r="N26">
-        <v>3.831171</v>
+        <v>8.795406</v>
       </c>
       <c r="O26">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="P26">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="Q26">
-        <v>0.3324860468066666</v>
+        <v>0.3635835159606667</v>
       </c>
       <c r="R26">
-        <v>2.99237442126</v>
+        <v>3.272251643646</v>
       </c>
       <c r="S26">
-        <v>0.007729285215843445</v>
+        <v>0.004671099299487879</v>
       </c>
       <c r="T26">
-        <v>0.007729285215843447</v>
+        <v>0.004671099299487879</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H27">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I27">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J27">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.523874</v>
       </c>
       <c r="O27">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="P27">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="Q27">
-        <v>0.3926018918266667</v>
+        <v>0.1870074007593334</v>
       </c>
       <c r="R27">
-        <v>3.53341702644</v>
+        <v>1.683066606834</v>
       </c>
       <c r="S27">
-        <v>0.009126795025995591</v>
+        <v>0.002402557047664591</v>
       </c>
       <c r="T27">
-        <v>0.009126795025995593</v>
+        <v>0.002402557047664591</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1240136666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.372041</v>
+      </c>
+      <c r="I28">
+        <v>0.02299013726750928</v>
+      </c>
+      <c r="J28">
+        <v>0.02299013726750928</v>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="L28">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G28">
-        <v>0.2603533333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.78106</v>
-      </c>
-      <c r="I28">
-        <v>0.06283448648418176</v>
-      </c>
-      <c r="J28">
-        <v>0.06283448648418177</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
       <c r="M28">
-        <v>0.9821499999999999</v>
+        <v>0.3072716666666667</v>
       </c>
       <c r="N28">
-        <v>2.94645</v>
+        <v>0.9218150000000001</v>
       </c>
       <c r="O28">
-        <v>0.09460384813180638</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="P28">
-        <v>0.09460384813180636</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="Q28">
-        <v>0.2557060263333333</v>
+        <v>0.03810588604611111</v>
       </c>
       <c r="R28">
-        <v>2.301354237</v>
+        <v>0.3429529744150001</v>
       </c>
       <c r="S28">
-        <v>0.005944384216789571</v>
+        <v>0.0004895611869147847</v>
       </c>
       <c r="T28">
-        <v>0.005944384216789572</v>
+        <v>0.0004895611869147848</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H29">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I29">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J29">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.9484723333333335</v>
+        <v>0.7995056666666667</v>
       </c>
       <c r="N29">
-        <v>2.845417</v>
+        <v>2.398517</v>
       </c>
       <c r="O29">
-        <v>0.09135990691837981</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="P29">
-        <v>0.09135990691837979</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="Q29">
-        <v>0.2469379335577778</v>
+        <v>0.09914962924411112</v>
       </c>
       <c r="R29">
-        <v>2.22244140202</v>
+        <v>0.8923466631970001</v>
       </c>
       <c r="S29">
-        <v>0.00574055283645904</v>
+        <v>0.001273813974989872</v>
       </c>
       <c r="T29">
-        <v>0.00574055283645904</v>
+        <v>0.001273813974989872</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H30">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I30">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J30">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.427111</v>
+        <v>8.335887</v>
       </c>
       <c r="N30">
-        <v>13.281333</v>
+        <v>25.007661</v>
       </c>
       <c r="O30">
-        <v>0.4264335760389447</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="P30">
-        <v>0.4264335760389446</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="Q30">
-        <v>1.152613105886667</v>
+        <v>1.033763911789</v>
       </c>
       <c r="R30">
-        <v>10.37351795298</v>
+        <v>9.303875206100999</v>
       </c>
       <c r="S30">
-        <v>0.02679473477002036</v>
+        <v>0.01328116834844581</v>
       </c>
       <c r="T30">
-        <v>0.02679473477002036</v>
+        <v>0.01328116834844581</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H31">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I31">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J31">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.238964666666667</v>
+        <v>0.547269</v>
       </c>
       <c r="N31">
-        <v>3.716894</v>
+        <v>1.641807</v>
       </c>
       <c r="O31">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="P31">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="Q31">
-        <v>0.3225685808488889</v>
+        <v>0.06786883534300001</v>
       </c>
       <c r="R31">
-        <v>2.90311722764</v>
+        <v>0.610819518087</v>
       </c>
       <c r="S31">
-        <v>0.007498734419073753</v>
+        <v>0.0008719374100063484</v>
       </c>
       <c r="T31">
-        <v>0.007498734419073754</v>
+        <v>0.0008719374100063484</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H32">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I32">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J32">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.277057</v>
+        <v>2.931802</v>
       </c>
       <c r="N32">
-        <v>3.831171</v>
+        <v>8.795406</v>
       </c>
       <c r="O32">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="P32">
-        <v>0.1230102392543504</v>
+        <v>0.2031783997257507</v>
       </c>
       <c r="Q32">
-        <v>0.09776978117733334</v>
+        <v>0.8785946052213334</v>
       </c>
       <c r="R32">
-        <v>0.879928030596</v>
+        <v>7.907351446992</v>
       </c>
       <c r="S32">
-        <v>0.002272848835216321</v>
+        <v>0.01128764772005555</v>
       </c>
       <c r="T32">
-        <v>0.002272848835216321</v>
+        <v>0.01128764772005555</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H33">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I33">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J33">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.523874</v>
       </c>
       <c r="O33">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="P33">
-        <v>0.1452513665134068</v>
+        <v>0.1045038148188874</v>
       </c>
       <c r="Q33">
-        <v>0.1154472538693334</v>
+        <v>0.4519008322186667</v>
       </c>
       <c r="R33">
-        <v>1.039025284824</v>
+        <v>4.067107489968</v>
       </c>
       <c r="S33">
-        <v>0.002683796090429114</v>
+        <v>0.005805746322786985</v>
       </c>
       <c r="T33">
-        <v>0.002683796090429114</v>
+        <v>0.005805746322786985</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H34">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I34">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J34">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.9821499999999999</v>
+        <v>0.3072716666666667</v>
       </c>
       <c r="N34">
-        <v>2.94645</v>
+        <v>0.9218150000000001</v>
       </c>
       <c r="O34">
-        <v>0.09460384813180638</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="P34">
-        <v>0.09460384813180636</v>
+        <v>0.02129440034299643</v>
       </c>
       <c r="Q34">
-        <v>0.07519209446666666</v>
+        <v>0.09208235367555556</v>
       </c>
       <c r="R34">
-        <v>0.6767288502</v>
+        <v>0.8287411830800001</v>
       </c>
       <c r="S34">
-        <v>0.001747986568733979</v>
+        <v>0.001183017928116451</v>
       </c>
       <c r="T34">
-        <v>0.001747986568733979</v>
+        <v>0.001183017928116452</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H35">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I35">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J35">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.9484723333333335</v>
+        <v>0.7995056666666667</v>
       </c>
       <c r="N35">
-        <v>2.845417</v>
+        <v>2.398517</v>
       </c>
       <c r="O35">
-        <v>0.09135990691837981</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="P35">
-        <v>0.09135990691837979</v>
+        <v>0.05540697561602141</v>
       </c>
       <c r="Q35">
-        <v>0.07261377721022225</v>
+        <v>0.2395937261715556</v>
       </c>
       <c r="R35">
-        <v>0.6535239948920001</v>
+        <v>2.156343535544</v>
       </c>
       <c r="S35">
-        <v>0.001688048566392552</v>
+        <v>0.003078154089369436</v>
       </c>
       <c r="T35">
-        <v>0.001688048566392552</v>
+        <v>0.003078154089369436</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H36">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I36">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J36">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.427111</v>
+        <v>8.335887</v>
       </c>
       <c r="N36">
-        <v>13.281333</v>
+        <v>25.007661</v>
       </c>
       <c r="O36">
-        <v>0.4264335760389447</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="P36">
-        <v>0.4264335760389446</v>
+        <v>0.5776898238539604</v>
       </c>
       <c r="Q36">
-        <v>0.3389337153453334</v>
+        <v>2.498076387128</v>
       </c>
       <c r="R36">
-        <v>3.050403438108</v>
+        <v>22.482687484152</v>
       </c>
       <c r="S36">
-        <v>0.007879173818962944</v>
+        <v>0.03209376209245737</v>
       </c>
       <c r="T36">
-        <v>0.007879173818962946</v>
+        <v>0.03209376209245737</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H37">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I37">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J37">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.238964666666667</v>
+        <v>0.547269</v>
       </c>
       <c r="N37">
-        <v>3.716894</v>
+        <v>1.641807</v>
       </c>
       <c r="O37">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="P37">
-        <v>0.119341063143112</v>
+        <v>0.03792658564238371</v>
       </c>
       <c r="Q37">
-        <v>0.09485348292711113</v>
+        <v>0.164004114536</v>
       </c>
       <c r="R37">
-        <v>0.8536813463440001</v>
+        <v>1.476037030824</v>
       </c>
       <c r="S37">
-        <v>0.002205053806922879</v>
+        <v>0.002107024853693081</v>
       </c>
       <c r="T37">
-        <v>0.002205053806922879</v>
+        <v>0.002107024853693081</v>
       </c>
     </row>
   </sheetData>
